--- a/experiment result cnn/2048_0.1_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/2048_0.1_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01366189830953911</v>
+        <v>0.001182509598757743</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01002404614158516</v>
+        <v>0.001301305857111741</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005061722227552361</v>
+        <v>0.0002000439999947973</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002466482379051899</v>
+        <v>0.001645406212858064</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005991874501188164</v>
+        <v>0.0007205319310748198</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01018995523748343</v>
+        <v>0.002510832215762191</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007464686009566984</v>
+        <v>0.004361627089588444</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.007758390022614195</v>
+        <v>0.01221011119932257</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009196096392531734</v>
+        <v>0.001603583743221546</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.005169742971371676</v>
+        <v>0.007330560927193833</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01295781217864448</v>
+        <v>0.006446734079765003</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006359182468011694</v>
+        <v>0.002830798349944455</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008729870465806377</v>
+        <v>0.001825057235313447</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003338053930636642</v>
+        <v>0.01666280652904438</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003362890512461166</v>
+        <v>0.004367524772603878</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.007437259380555955</v>
+        <v>0.0002402039795169508</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.008414436215581047</v>
+        <v>0.001223021571979591</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00531700203296475</v>
+        <v>0.001484154294074707</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.002368894003242607</v>
+        <v>0.00128405943288778</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01820432217657666</v>
+        <v>0.0002400879925291748</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01477700172300392</v>
+        <v>0.0003201119899387401</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01342491174081078</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.008759593037708183</v>
+        <v>0.006384723342907936</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01636910153206313</v>
+        <v>0.001624204318783682</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01637356048765996</v>
+        <v>0.005633672022766963</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.003263326359334664</v>
+        <v>0.0009427893685893003</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.003013420697817472</v>
+        <v>0.0007005099981735166</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00506148046136832</v>
+        <v>0.02099551315177148</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01063985342480731</v>
+        <v>0.0001600519949786836</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00826954581414938</v>
+        <v>0.0002601259998999033</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01090237038856724</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.003691794123390991</v>
+        <v>0.0002000919855073268</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.004727016731085015</v>
+        <v>0.003247702210605105</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008260694964359928</v>
+        <v>0.002247575093541779</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00437381863698984</v>
+        <v>0.0177977715235125</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01125274774746722</v>
+        <v>0.007627344087556191</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01699576972236164</v>
+        <v>0.001823565106002925</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.003405074257858633</v>
+        <v>0.0001200279981937363</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.002898927580559102</v>
+        <v>0.001001451593504392</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.004195962153850635</v>
+        <v>0.0003403499988538655</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01737677557903742</v>
+        <v>0.006594750231404263</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.009917420263512658</v>
+        <v>0.001081607726402551</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.006722270302164568</v>
+        <v>0.0003001499882594925</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.005939337586352623</v>
+        <v>0.0001800619999742547</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01029521316870094</v>
+        <v>0.009511550681666972</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.004086096897714395</v>
+        <v>0.003843305370110334</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003840133441460948</v>
+        <v>0.0006406639976924729</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0109347777724981</v>
+        <v>0.0009808698937896856</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.007055782741484629</v>
+        <v>0.0004202579787041015</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005359366349172353</v>
+        <v>0.003512147899303947</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.009388244939358052</v>
+        <v>0.003675573588769953</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01053453174089479</v>
+        <v>0.03880711988599114</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01489823393748435</v>
+        <v>0.001525252679876271</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01716572999975333</v>
+        <v>0.00116127992763239</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02184033308098079</v>
+        <v>0.01166974008597471</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001798920559495285</v>
+        <v>0.1932596009896682</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007344880524691325</v>
+        <v>0.003659377644856865</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01972324723968091</v>
+        <v>0.03015950410699552</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05156903889862069</v>
+        <v>0.005648223238799957</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04117339919671208</v>
+        <v>0.04056903916038003</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01912388415432983</v>
+        <v>0.008638332926003927</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01962784038247598</v>
+        <v>0.01144761130827933</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.009184756705905819</v>
+        <v>0.1124169297219144</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01749473677266095</v>
+        <v>0.003011646209874244</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.001866507166892088</v>
+        <v>0.004824145644131128</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003832947674090769</v>
+        <v>0.03760647887896403</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.001525566311007549</v>
+        <v>0.01218728473429459</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05209461881406763</v>
+        <v>0.06672650580513359</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02075384871572913</v>
+        <v>0.007861735191198215</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02385513726651174</v>
+        <v>0.005939372717406374</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.005448913293533033</v>
+        <v>0.03743043121585744</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.005590240494287957</v>
+        <v>0.0009209558292640368</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01663775371104646</v>
+        <v>0.01311272301874601</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.006777828683087022</v>
+        <v>0.002810192136053581</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003465416895359614</v>
+        <v>0.004481794096097837</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04176189399100029</v>
+        <v>0.1002564850078884</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00777883033666923</v>
+        <v>0.007101443187963662</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.003008150264314701</v>
+        <v>0.05042112332128722</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01062653291085597</v>
+        <v>0.009234926868488732</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001691120607820996</v>
+        <v>0.008156311643467789</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.001004564105019996</v>
+        <v>0.009694015423390745</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01523062683044846</v>
+        <v>0.006988116112961159</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02398542652307689</v>
+        <v>0.004579253554792041</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01798134214710783</v>
+        <v>0.01308030811371643</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001229633563391846</v>
+        <v>0.06702491332599758</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.004942614077255194</v>
+        <v>0.003102243351744641</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01054743723389711</v>
+        <v>0.02018142234919893</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.004686421943101706</v>
+        <v>0.010217718681655</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03126084895550443</v>
+        <v>0.00709004240338027</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03217474026022997</v>
+        <v>0.003310057927916376</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.03851152156503866</v>
+        <v>0.05203647609635932</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001807805509849689</v>
+        <v>0.06865786058842446</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01861518181281951</v>
+        <v>0.009188839432732009</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0460303971388217</v>
+        <v>0.3215491766026018</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02236721827532234</v>
+        <v>0.00795699261970843</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02003191864448652</v>
+        <v>0.03475613497822139</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001862908857422097</v>
+        <v>0.03435528029999335</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02390790608109474</v>
+        <v>0.06648065546142137</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01084524986865827</v>
+        <v>0.04405525036524414</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02080023381434399</v>
+        <v>0.2995527937679649</v>
       </c>
     </row>
   </sheetData>
